--- a/soberano/test_cases/product_modify_test_cases.xlsx
+++ b/soberano/test_cases/product_modify_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -133,9 +133,6 @@
     <t xml:space="preserve">mproduct5</t>
   </si>
   <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
     <t xml:space="preserve">mcat7</t>
   </si>
   <si>
@@ -199,19 +196,16 @@
     <t xml:space="preserve">User14 is allowed to modify product</t>
   </si>
   <si>
-    <t xml:space="preserve">User15 is NOT allowed to modify product</t>
+    <t xml:space="preserve">User1 tries to modify another product with the same code and fails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mproduct10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User1 tries to modify another product with the same name and fails</t>
   </si>
   <si>
     <t xml:space="preserve">mp10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mproduct10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User1 tries to modify another product with the same code and fails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User1 tries to modify another product with the same name and fails</t>
   </si>
   <si>
     <t xml:space="preserve">check mp1 data is correctly shown in details panel</t>
@@ -249,7 +243,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -277,6 +271,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -342,6 +341,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,10 +362,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ27"/>
+  <dimension ref="A1:AMJ26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -370,7 +373,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.94"/>
@@ -613,20 +616,20 @@
         <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>876.123</v>
       </c>
       <c r="I8" s="0"/>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,13 +637,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -649,14 +652,14 @@
         <v>345</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>3.45</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -679,14 +682,14 @@
         <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="1" t="n">
         <v>8.00998877</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,13 +697,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -709,14 +712,14 @@
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="1" t="n">
         <v>8.00998877</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,22 +727,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>45656</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="1" t="n">
@@ -754,22 +757,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="1" t="n">
@@ -784,22 +787,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="1" t="n">
@@ -814,22 +817,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="1" t="n">
@@ -841,16 +844,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
@@ -859,7 +862,7 @@
         <v>567</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>1234</v>
@@ -871,16 +874,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
@@ -889,7 +892,7 @@
         <v>567</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>1234</v>
@@ -901,104 +904,74 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>1234</v>
-      </c>
-      <c r="I18" s="0"/>
-      <c r="J18" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/soberano/test_cases/product_modify_test_cases.xlsx
+++ b/soberano/test_cases/product_modify_test_cases.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="12:12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -844,7 +844,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>58</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>60</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>62</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>63</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>64</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>65</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>66</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>67</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>68</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>69</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>70</v>

--- a/soberano/test_cases/product_modify_test_cases.xlsx
+++ b/soberano/test_cases/product_modify_test_cases.xlsx
@@ -243,7 +243,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -271,11 +271,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -320,7 +315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,10 +333,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -365,7 +356,7 @@
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="12:12"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -765,7 +756,7 @@
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="1" t="n">
@@ -795,7 +786,7 @@
       <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="1" t="n">
@@ -825,7 +816,7 @@
       <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="1" t="n">
